--- a/Papers/papers_overview.xlsx
+++ b/Papers/papers_overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D Winter\Desktop\project\Papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92A493BC-29A0-40F7-B3BC-90B2A4A83166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A724AD-1831-4CD4-A294-64FF1FD533C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D10A563-F30B-4D89-A937-F2AE741F602B}"/>
+    <workbookView xWindow="4800" yWindow="0" windowWidth="14400" windowHeight="7360" xr2:uid="{6D10A563-F30B-4D89-A937-F2AE741F602B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="102">
   <si>
     <t>Author</t>
   </si>
@@ -345,6 +345,34 @@
   </si>
   <si>
     <t>https://github.com/BenSaunders2+B30:I317/ProgressiveTransformersSLP</t>
+  </si>
+  <si>
+    <t>Including Signed Languages in Natural Language Processing</t>
+  </si>
+  <si>
+    <t>using STMC Transformer for DGS Corpus!</t>
+  </si>
+  <si>
+    <t>PHOENIX-Weather 2014T,
+DGS Corpus</t>
+  </si>
+  <si>
+    <t>Content4All Open Research Sign Language Translation Datasets</t>
+  </si>
+  <si>
+    <t>first results for Content4All Datasets</t>
+  </si>
+  <si>
+    <t>Content4All Datasets</t>
+  </si>
+  <si>
+    <t>Using Neural Machine Translation Methods for Sign Language Translation</t>
+  </si>
+  <si>
+    <t>Angelova</t>
+  </si>
+  <si>
+    <t>gloss-&gt;text SLT for DGS Corpus</t>
   </si>
 </sst>
 </file>
@@ -725,16 +753,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA61CF0-6CFE-41AB-8A12-56C11BE99D84}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="59" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="56.90625" customWidth="1"/>
+    <col min="3" max="3" width="63.36328125" customWidth="1"/>
     <col min="4" max="4" width="40.36328125" customWidth="1"/>
     <col min="5" max="5" width="29.453125" customWidth="1"/>
     <col min="6" max="6" width="33.08984375" customWidth="1"/>
@@ -808,7 +836,9 @@
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
@@ -832,6 +862,9 @@
       <c r="D4" t="s">
         <v>22</v>
       </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
       <c r="F4" t="s">
         <v>21</v>
       </c>
@@ -1162,34 +1195,85 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17">
+        <v>2021</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18">
+        <v>2021</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>2022</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="24" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="B21">
+      <c r="B24">
         <v>2020</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G24" t="s">
         <v>14</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H24" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I21" r:id="rId1" xr:uid="{1B834C55-DA28-4383-8F69-13CF1D8B4D14}"/>
+    <hyperlink ref="I24" r:id="rId1" xr:uid="{1B834C55-DA28-4383-8F69-13CF1D8B4D14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
